--- a/order_forms/current_order_ny.xlsx
+++ b/order_forms/current_order_ny.xlsx
@@ -2706,7 +2706,9 @@
       <c r="M13" s="55">
         <v>4</v>
       </c>
-      <c r="N13" s="51"/>
+      <c r="N13" s="51">
+        <v>5</v>
+      </c>
       <c r="O13" s="52">
         <v>4</v>
       </c>
@@ -4470,9 +4472,7 @@
       <c r="Q42" s="65">
         <v>1</v>
       </c>
-      <c r="R42" s="44">
-        <v>1</v>
-      </c>
+      <c r="R42" s="44"/>
       <c r="S42" s="65" t="s">
         <v>111</v>
       </c>
@@ -4521,9 +4521,7 @@
       <c r="Q43" s="154">
         <v>2</v>
       </c>
-      <c r="R43" s="136">
-        <v>4</v>
-      </c>
+      <c r="R43" s="136"/>
       <c r="S43" s="154" t="s">
         <v>115</v>
       </c>
